--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/7_Ankara_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/7_Ankara_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C385C195-AA87-48E1-B434-915CF59B620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4910F13-B6D1-4047-A299-B5D97C93F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{5F89CFD8-8E23-4EE9-83C2-428D881FCD70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{831E2BDB-E0C7-4C83-87DD-9456B17259DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -925,15 +925,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D0873DA0-8584-40A8-B9E9-125E95E65AED}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CE964854-962D-4C16-B017-416FD0B116C8}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{976D5DEA-17A9-4E37-87BB-5D73A17DE126}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{4B2D9974-72DE-4D7C-BF8E-08B010BEAF17}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{6039F3CA-F87A-4A37-9D2D-E7EFA756D7DD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4D524D5C-6D93-405E-A7B3-08657EA1B6F9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{AAAC1D17-F172-49C9-8B7D-2319306908A8}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4B0EFBA6-5D69-40D3-85F5-D207464D37DB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{1C205468-3099-4678-AE0B-BE8CB2993ECE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B26E2C3A-4ED8-420A-A0F5-464D9CDC91CC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CBA97A46-8D2F-44CB-8EC7-71E1B930DC44}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{56FB0DA3-67CE-458A-82A5-F2B4B4D31624}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{B201C0C9-EA54-4C39-B079-597E0AFA0125}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{1F5D0A4E-69A9-4D78-B700-96A31115914F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5E1845E5-AE14-406F-A590-78C48FB316C7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9309994C-E77B-4008-92A0-B07BBDAA5224}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{AFF051C5-0058-4D80-8B32-F9B35BC229B1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D4B33603-119F-4746-8321-C82A7C3C1D0F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254C446-641A-4AD7-B8D1-66528554759D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2847CBE2-2782-4876-B9EB-644F2E8D6000}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6CA03D-BA72-4C6F-91B6-5C712871142C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90A95C5-C95C-466F-BB77-986B89EDBCA1}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3921,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF15A8D-ADD8-4E08-9B77-1191376A8EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF4810-88B2-4A34-B9B2-BD510DAA1EC6}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0003CB6-0F62-47E2-935A-415A63060B37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC40632C-2C4E-444F-AC59-10C5B95B4EA4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3341068-06AC-499D-A787-CD1E8BF240DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F0C30-31B9-4151-9FEA-931EFAF470CD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7822,7 +7822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C0B1E-E738-42B1-8BF0-B0BAAAAA2D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1DC678-3593-4D21-B9DA-2ADF425C8F51}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9149,7 +9149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB816D-5459-4BAC-8374-A26F7EE8A450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF8776-3201-47DF-AAAC-1EE99427A5C5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10476,7 +10476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22330008-92F2-40EA-A794-A82E24A13D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715AA55-15CF-424B-A77D-233BAE10232D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11803,7 +11803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6611327C-3D48-49DB-BC10-1048328AA25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB197C5-38CF-4B97-926A-074713BB538F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13128,7 +13128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2ACFBB-F6CA-4BD7-B42F-5E462A8EC664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45E7CEE-A5B9-4670-B777-23601270BFA3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14441,7 +14441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219F7720-AB76-4918-9568-6B7E166B48DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD490418-7D5A-4343-8332-14D44C2B9D67}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15752,7 +15752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F69485-4D1A-45ED-BBB2-BA56239D41A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDB373-41F1-4F8C-8EA1-5FFB97ABEB6E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
